--- a/resources/experiment 2/metrics/R2/upto time/Amputación extremidades inferiores (UPTO).xlsx
+++ b/resources/experiment 2/metrics/R2/upto time/Amputación extremidades inferiores (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>-0.2411497036241854</v>
+      </c>
+      <c r="C2" t="n">
         <v>-0.2411497036241856</v>
       </c>
-      <c r="C2" t="n">
-        <v>-0.2411497036241854</v>
-      </c>
       <c r="D2" t="n">
-        <v>-0.2411497036241854</v>
+        <v>-0.2411497036241856</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9637480032980675</v>
+        <v>0.9902059634819493</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9637479969658422</v>
+        <v>0.9895068860712153</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9637479969658422</v>
+        <v>0.8276613885180325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8818635036855762</v>
+        <v>0.9881013271109148</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8818635006475527</v>
+        <v>0.9878673286848111</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8818635006475527</v>
+        <v>0.795051762525095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8481138071905225</v>
+        <v>0.8739362026414632</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8481138071905225</v>
+        <v>0.8680699777993957</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8481138071905225</v>
+        <v>0.5130799457880881</v>
       </c>
     </row>
   </sheetData>
